--- a/utility/optbs/template/laporan_semester_barang_pakai_habis.xlsx
+++ b/utility/optbs/template/laporan_semester_barang_pakai_habis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Lamp. 15" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>LAMPIRAN 15</t>
   </si>
@@ -160,25 +160,37 @@
     <t>[a.jumlah_harga_keluar]</t>
   </si>
   <si>
+    <t>Mengetahui</t>
+  </si>
+  <si>
     <t>Kota Pekalongan, [b.tanggal_cetak]</t>
   </si>
   <si>
-    <t>ATASAN LANGSUNG,</t>
+    <t>An Pengguna / Kuasa Pengguna Barang</t>
   </si>
   <si>
-    <t>PENYIMPAN BARANG,</t>
+    <t>Pengurus Barang</t>
   </si>
   <si>
-    <t>(Kasubbag. Umum / Keuangan / Sekretaris Kelurahan)</t>
+    <t>Pejabat Penatausahaan Pengguna Barang</t>
+  </si>
+  <si>
+    <t>Pembantu Pengurus Barang</t>
   </si>
   <si>
     <t>([b.nama_atasan])</t>
   </si>
   <si>
-    <t>([b.nama_penyimpan_barang])</t>
+    <t>……………………………………</t>
   </si>
   <si>
     <t>NIP. [b.nip_atasan]</t>
+  </si>
+  <si>
+    <t>NIP ………………………………</t>
+  </si>
+  <si>
+    <t>([b.nama_penyimpan_barang])</t>
   </si>
   <si>
     <t>NIP. [b.nip_penyimpan_barang]</t>
@@ -191,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -268,15 +280,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -341,7 +360,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -410,6 +429,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -418,12 +445,44 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -444,10 +503,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:24"/>
+  <dimension ref="1:26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="100" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15:K15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="F7" colorId="64" zoomScale="95" zoomScaleNormal="100" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7963,123 +8022,127 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="0"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
+      <c r="B17" s="0" t="s">
+        <v>46</v>
+      </c>
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
-      <c r="F17" s="18" t="s">
-        <v>47</v>
-      </c>
+      <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="19"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
-      <c r="M17" s="19"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
       <c r="P17" s="0"/>
       <c r="Q17" s="0"/>
       <c r="R17" s="0"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
+      <c r="B18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="21"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
-      <c r="F18" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="F18" s="21"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="20"/>
       <c r="P18" s="0"/>
       <c r="Q18" s="0"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
+      <c r="B19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="21"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="0"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="17"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="19"/>
       <c r="T19" s="0"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
@@ -8087,26 +8150,26 @@
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
-      <c r="J20" s="19"/>
+      <c r="J20" s="0"/>
       <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="0"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="0"/>
-      <c r="P20" s="19"/>
+      <c r="P20" s="22"/>
       <c r="Q20" s="0"/>
       <c r="R20" s="0"/>
-      <c r="S20" s="17"/>
+      <c r="S20" s="19"/>
       <c r="T20" s="0"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
@@ -8114,26 +8177,26 @@
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
-      <c r="J21" s="19"/>
+      <c r="J21" s="0"/>
       <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="0"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="0"/>
-      <c r="P21" s="19"/>
+      <c r="P21" s="22"/>
       <c r="Q21" s="0"/>
       <c r="R21" s="0"/>
-      <c r="S21" s="17"/>
+      <c r="S21" s="19"/>
       <c r="T21" s="0"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
@@ -8141,87 +8204,110 @@
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
-      <c r="J22" s="19"/>
+      <c r="J22" s="0"/>
       <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="0"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
       <c r="O22" s="0"/>
-      <c r="P22" s="19"/>
+      <c r="P22" s="22"/>
       <c r="Q22" s="0"/>
       <c r="R22" s="0"/>
-      <c r="S22" s="17"/>
+      <c r="S22" s="19"/>
       <c r="T22" s="0"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="0"/>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
-      <c r="F23" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="F23" s="0"/>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
-      <c r="J23" s="19"/>
+      <c r="J23" s="0"/>
       <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="0"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="0"/>
-      <c r="P23" s="19"/>
+      <c r="P23" s="22"/>
       <c r="Q23" s="0"/>
       <c r="R23" s="0"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="18" t="s">
+      <c r="B24" s="25" t="s">
         <v>52</v>
       </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="19"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="22"/>
       <c r="Q24" s="0"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="V25" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V26" s="28" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="41">
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A3:Y3"/>
     <mergeCell ref="A4:Y4"/>
@@ -8260,6 +8346,9 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="Q12:Q13"/>
     <mergeCell ref="R12:R13"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="1.575" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
